--- a/144F20/Topic 1/QR_5-1_Tech_Template.xlsx
+++ b/144F20/Topic 1/QR_5-1_Tech_Template.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BMercer\Google Drive\  QR\  Videos\Tech\Unit 5\Unit 5 Tech Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E937EA9-F441-4A6D-B4AF-6075423F7476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="708" yWindow="444" windowWidth="17436" windowHeight="10824" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{B62E1535-74BF-4942-B420-625B8B4ACDDA}" mergeInterval="0" personalView="1" xWindow="59" yWindow="37" windowWidth="1453" windowHeight="902" tabRatio="500" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Items</t>
   </si>
@@ -114,17 +118,23 @@
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>Video (autofill)</t>
+  </si>
+  <si>
+    <t>Video (general)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +146,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -200,11 +218,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -217,8 +245,15 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -251,7 +286,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -346,6 +387,26 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{97EB08FA-5DA3-492D-86D6-7106F270C385}">
+  <header guid="{97EB08FA-5DA3-492D-86D6-7106F270C385}" dateTime="2021-01-26T18:11:50" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{97EB08FA-5DA3-492D-86D6-7106F270C385}" name="Richard Ketchersid" id="-1739541754" dateTime="2021-01-26T18:11:50"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,28 +730,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
@@ -704,212 +773,212 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="7"/>
       <c r="C8" s="4"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="7"/>
       <c r="C20" s="4"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="7"/>
       <c r="C26" s="4"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="7"/>
       <c r="C32" s="4"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="7"/>
       <c r="C39" s="4"/>
@@ -917,9 +986,24 @@
       <c r="E39" s="9"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B62E1535-74BF-4942-B420-625B8B4ACDDA}" scale="150">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId2" display="Video" xr:uid="{4C1A7EA5-AB92-44B8-B05B-0A63318B4C1F}"/>
+    <hyperlink ref="B1:C1" r:id="rId3" display="Video" xr:uid="{FF61B875-203B-4521-9C84-14017D0EBEB4}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/144F20/Topic 1/QR_5-1_Tech_Template.xlsx
+++ b/144F20/Topic 1/QR_5-1_Tech_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E937EA9-F441-4A6D-B4AF-6075423F7476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{5923E150-398C-4435-B211-D4FA3DC7DB09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="444" windowWidth="17436" windowHeight="10824" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="555" windowWidth="21795" windowHeight="13530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Items</t>
   </si>
@@ -124,6 +124,51 @@
   </si>
   <si>
     <t>Video (general)</t>
+  </si>
+  <si>
+    <t>Enter you name to the right to unlock the sheet.</t>
+  </si>
+  <si>
+    <t>Your Name</t>
+  </si>
+  <si>
+    <t>For each item, record the price in column B and  record the quantity of the item in column C.  
+You will want to record all of the quantities for each item you are comparing using the same units (lbs, oz, gal).  It may be necessary to convert the units on some quantities before recording them in column C.  
+Then write a formula to calculate the unit price in column D.  With a little creativity, you should not have to type the formula every time.  Finally write the units for each unit price in column E (Hint: in cell E5 the units should be $ per lb.)
+Finally, highlight the cells that contain the item that would be "best deal" based on the unit price.</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>If a cell is shaded</t>
+  </si>
+  <si>
+    <t>You should</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Enter a text response</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Enter a number</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Enter an Excel formula</t>
+  </si>
+  <si>
+    <t>Any other color</t>
+  </si>
+  <si>
+    <t>Make no changes</t>
   </si>
 </sst>
 </file>
@@ -134,7 +179,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,8 +203,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +233,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -183,14 +286,315 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -198,32 +602,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color theme="2" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
@@ -232,31 +627,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -269,129 +821,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4210050" y="222250"/>
-          <a:ext cx="3187700" cy="2952750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>For each item, record the price in column B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t> record the quantity</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> of the item in column C.  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>You will want to record all of the quantities for each item you are comparing using the same units (lbs, oz, gal).  It may be necessary to convert the units on some quantities before recording them in column C.  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Then write a formula to calculate the unit price in column D.  With a little creativity, you should not have to type the formula every time.  Finally write the units for each unit price in column E (Hint: in cell E5 the units should be $ per lb.)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Finally, highlight the cells that contain the item that would be "best deal" based on the unit price.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{97EB08FA-5DA3-492D-86D6-7106F270C385}">
-  <header guid="{97EB08FA-5DA3-492D-86D6-7106F270C385}" dateTime="2021-01-26T18:11:50" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{07306E0B-6D2B-4C08-A858-D10090994BD5}">
+  <header guid="{07306E0B-6D2B-4C08-A858-D10090994BD5}" dateTime="2021-04-23T13:21:36" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -405,7 +837,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{97EB08FA-5DA3-492D-86D6-7106F270C385}" name="Richard Ketchersid" id="-1739541754" dateTime="2021-01-26T18:11:50"/>
+  <userInfo guid="{07306E0B-6D2B-4C08-A858-D10090994BD5}" name="Richard Ketchersid" id="-1739574577" dateTime="2021-04-23T13:21:36"/>
 </users>
 </file>
 
@@ -420,34 +852,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -731,279 +1163,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11" style="1"/>
+    <col min="8" max="8" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E5" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="H5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="H6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="22"/>
+      <c r="H7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="24"/>
+      <c r="H8" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="24"/>
+      <c r="H9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="24"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="23"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="25"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B62E1535-74BF-4942-B420-625B8B4ACDDA}" scale="150">
-      <selection activeCell="B2" sqref="B2"/>
+    <customSheetView guid="{B62E1535-74BF-4942-B420-625B8B4ACDDA}">
+      <selection activeCell="E3" sqref="E3"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="12">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="F13:J27"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:J42">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E$2="Your Name"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E$2="Your Name"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId2" display="Video" xr:uid="{4C1A7EA5-AB92-44B8-B05B-0A63318B4C1F}"/>
-    <hyperlink ref="B1:C1" r:id="rId3" display="Video" xr:uid="{FF61B875-203B-4521-9C84-14017D0EBEB4}"/>
+    <hyperlink ref="D4" r:id="rId2" display="Video" xr:uid="{4C1A7EA5-AB92-44B8-B05B-0A63318B4C1F}"/>
+    <hyperlink ref="B4:C4" r:id="rId3" display="Video" xr:uid="{FF61B875-203B-4521-9C84-14017D0EBEB4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/144F20/Topic 1/QR_5-1_Tech_Template.xlsx
+++ b/144F20/Topic 1/QR_5-1_Tech_Template.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{5923E150-398C-4435-B211-D4FA3DC7DB09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{A91F6560-5637-4517-894C-73D0B2316A03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="555" windowWidth="21795" windowHeight="13530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="555" windowWidth="19335" windowHeight="13605" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{B62E1535-74BF-4942-B420-625B8B4ACDDA}" mergeInterval="0" personalView="1" xWindow="59" yWindow="37" windowWidth="1453" windowHeight="902" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{B62E1535-74BF-4942-B420-625B8B4ACDDA}" mergeInterval="0" personalView="1" xWindow="59" yWindow="37" windowWidth="1289" windowHeight="907" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -633,9 +633,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -682,6 +679,75 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -690,61 +756,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,25 +777,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -822,8 +822,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{07306E0B-6D2B-4C08-A858-D10090994BD5}">
-  <header guid="{07306E0B-6D2B-4C08-A858-D10090994BD5}" dateTime="2021-04-23T13:21:36" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8DB5CF34-9561-4DF0-884C-ABAF59410CE8}">
+  <header guid="{8DB5CF34-9561-4DF0-884C-ABAF59410CE8}" dateTime="2022-03-17T23:04:41" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -837,7 +837,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{07306E0B-6D2B-4C08-A858-D10090994BD5}" name="Richard Ketchersid" id="-1739574577" dateTime="2021-04-23T13:21:36"/>
+  <userInfo guid="{8DB5CF34-9561-4DF0-884C-ABAF59410CE8}" name="Richard Ketchersid" id="-1739585400" dateTime="2022-03-17T23:04:41"/>
 </users>
 </file>
 
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1183,53 +1183,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="20"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="26" t="s">
+      <c r="E4" s="55"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="16"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1241,465 +1241,467 @@
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="H6" s="30" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="H6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="22"/>
-      <c r="H7" s="32" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="21"/>
+      <c r="H7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="24"/>
-      <c r="H8" s="33" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="23"/>
+      <c r="H8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="24"/>
-      <c r="H9" s="34" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="23"/>
+      <c r="H9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="24"/>
-      <c r="K10" s="20"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="23"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="23"/>
-      <c r="K11" s="20"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="22"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="20"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="36" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="20"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="20"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="20"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="20"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="20"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="20"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="20"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="20"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="20"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="20"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="20"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="20"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="20"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="20"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="20"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="25"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="25"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="25"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="25"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="25"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="25"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="25"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{B62E1535-74BF-4942-B420-625B8B4ACDDA}">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="F13:J27"/>
@@ -1710,8 +1712,6 @@
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:J42">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -1726,9 +1726,10 @@
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId2" display="Video" xr:uid="{4C1A7EA5-AB92-44B8-B05B-0A63318B4C1F}"/>
     <hyperlink ref="B4:C4" r:id="rId3" display="Video" xr:uid="{FF61B875-203B-4521-9C84-14017D0EBEB4}"/>
+    <hyperlink ref="D4:E4" r:id="rId4" display="Video (autofill)" xr:uid="{ADC89870-6C98-478F-9EE4-27DCEC7806D8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/144F20/Topic 1/QR_5-1_Tech_Template.xlsx
+++ b/144F20/Topic 1/QR_5-1_Tech_Template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{A91F6560-5637-4517-894C-73D0B2316A03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{98A15510-1464-4490-AEC2-2BF64FE46073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="555" windowWidth="19335" windowHeight="13605" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Topic 1 DQ 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Items</t>
   </si>
@@ -169,6 +170,9 @@
   </si>
   <si>
     <t>Make no changes</t>
+  </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
   </si>
 </sst>
 </file>
@@ -179,7 +183,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +219,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -627,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -712,6 +724,21 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,26 +786,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,10 +837,11 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8DB5CF34-9561-4DF0-884C-ABAF59410CE8}">
-  <header guid="{8DB5CF34-9561-4DF0-884C-ABAF59410CE8}" dateTime="2022-03-17T23:04:41" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D58B5E69-159A-429B-BAF9-F41C9BD1D67B}">
+  <header guid="{D58B5E69-159A-429B-BAF9-F41C9BD1D67B}" dateTime="2022-07-20T13:52:05" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="2">
       <sheetId val="1"/>
+      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -837,7 +853,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{8DB5CF34-9561-4DF0-884C-ABAF59410CE8}" name="Richard Ketchersid" id="-1739585400" dateTime="2022-03-17T23:04:41"/>
+  <userInfo guid="{D58B5E69-159A-429B-BAF9-F41C9BD1D67B}" name="Richard Ketchersid" id="-1739543985" dateTime="2022-07-20T13:52:05"/>
 </users>
 </file>
 
@@ -1191,16 +1207,16 @@
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="54"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1215,20 +1231,20 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="33"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1253,13 +1269,13 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="H6" s="27" t="s">
         <v>38</v>
       </c>
@@ -1333,13 +1349,13 @@
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1352,13 +1368,13 @@
       <c r="C13" s="6"/>
       <c r="D13" s="14"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1369,11 +1385,11 @@
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1384,11 +1400,11 @@
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1399,11 +1415,11 @@
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
       <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1412,26 +1428,26 @@
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1439,11 +1455,11 @@
       <c r="C19" s="6"/>
       <c r="D19" s="14"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
       <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1454,11 +1470,11 @@
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1469,11 +1485,11 @@
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1484,11 +1500,11 @@
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
       <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1497,26 +1513,26 @@
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
       <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1525,11 +1541,11 @@
       <c r="C25" s="6"/>
       <c r="D25" s="14"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1540,11 +1556,11 @@
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1555,11 +1571,11 @@
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
       <c r="E27" s="23"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="19"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1584,13 +1600,13 @@
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1634,13 +1650,13 @@
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="36"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
@@ -1736,4 +1752,67 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F7DCD-21C4-465F-870A-1ACEB2041951}">
+  <dimension ref="B5:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B62E1535-74BF-4942-B420-625B8B4ACDDA}" state="hidden">
+      <selection activeCell="B5" sqref="B5:F9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="B5:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>